--- a/models/model_training/PhishingUrlData/Mock_Data_07_08_2025.xlsx
+++ b/models/model_training/PhishingUrlData/Mock_Data_07_08_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,293 +589,391 @@
     <row r="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
-          <t>S. No</t>
+          <t>raw_value</t>
         </is>
       </c>
       <c r="B1" s="12" t="inlineStr">
         <is>
-          <t>Identified Phishing/Suspected Domain Name</t>
+          <t>host</t>
         </is>
       </c>
       <c r="C1" s="12" t="inlineStr">
         <is>
-          <t>Critical Sector Entity Name</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D1" s="12" t="inlineStr">
         <is>
-          <t>Phishing/Suspected Domains (i.e. Class Label)</t>
+          <t>phishing_score</t>
         </is>
       </c>
       <c r="E1" s="12" t="inlineStr">
         <is>
-          <t>_checked_normalized</t>
+          <t>phishing_indicators</t>
         </is>
       </c>
       <c r="F1" s="12" t="inlineStr">
         <is>
-          <t>_dns_resolved</t>
+          <t>verified_phishing</t>
         </is>
       </c>
       <c r="G1" s="12" t="inlineStr">
         <is>
-          <t>_dns_addresses</t>
+          <t>content_hash</t>
         </is>
       </c>
       <c r="H1" s="12" t="inlineStr">
         <is>
-          <t>_http_active</t>
+          <t>final_url</t>
         </is>
       </c>
       <c r="I1" s="12" t="inlineStr">
         <is>
-          <t>_http_details</t>
+          <t>dns_resolved</t>
+        </is>
+      </c>
+      <c r="J1" s="12" t="inlineStr">
+        <is>
+          <t>http_active</t>
+        </is>
+      </c>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>http_status</t>
+        </is>
+      </c>
+      <c r="L1" s="12" t="inlineStr">
+        <is>
+          <t>ip_addresses</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>ssl_valid</t>
+        </is>
+      </c>
+      <c r="N1" s="12" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="O1" s="12" t="inlineStr">
+        <is>
+          <t>check_timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bobank.de</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>bobank.de</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LONG_URL</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7b2fee3536c9fdbf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://sedo.com/search/details/?domain=bobank.de&amp;campaignId=329145&amp;origin=sales_lander_15</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>91.195.241.232</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>bobb.com.cn</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>bobank.de</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>91.195.241.232</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://sedo.com/search/details/?domain=bobank.de&amp;campaignId=329145&amp;origin=sales_lander_15', 'status': 200, 'tried': 'https://bobank.de'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>bobb.com.cn</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>http://bobb.com.cn</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>404</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>144.48.58.159</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bobank.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bobank.com</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>54.179.117.50</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bobank.cn</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bobank.cn</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>54.179.117.50</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bobank.net</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bobank.net</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>54.179.117.50</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>bobank.org</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>bobank.net</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bobank.org</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>54.179.117.50</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'final_url': 'http://bobank.net', 'status': 200, 'tried': 'http://bobank.net'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bobank.cn</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>bobank.org</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>54.179.117.50</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{'final_url': 'http://bobank.org', 'status': 200, 'tried': 'http://bobank.org'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>bobank.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>bobank.cn</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>54.179.117.50</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{'final_url': 'http://bobank.cn', 'status': 200, 'tried': 'http://bobank.cn'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>bobank.net</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>bobank.com</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>54.179.117.50</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>{'final_url': 'http://bobank.com', 'status': 200, 'tried': 'http://bobank.com'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bobank.de</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>bobb.com.cn</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>144.48.58.159</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>{'final_url': 'http://bobb.com.cn', 'status': 200, 'tried': 'http://bobb.com.cn'}</t>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Mock_Data_07_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:46.906381</t>
         </is>
       </c>
     </row>
